--- a/assets/data/_in/requirements.xlsx
+++ b/assets/data/_in/requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eithan/opt/dev/phase3/assets/data/_in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCFE7184-C280-F941-9E02-82333F9DFE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B422C0E-BA7F-D946-A52E-780B69DCBE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39524,18 +39524,18 @@
       <selection pane="bottomLeft" activeCell="B465" sqref="B465"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:K580" xr:uid="{A8260219-DF3A-8C40-AEDE-C25F9AFF8384}"/>
+      <autoFilter ref="A1:K580" xr:uid="{33F8ECEC-20AD-8545-B30F-8FB9F43D9955}"/>
     </customSheetView>
     <customSheetView guid="{802E3E91-A1CB-4BEB-84C3-4D3DB3DA819B}" scale="80" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:L580" xr:uid="{9529FF5E-E735-984A-9546-B9BDE541568B}"/>
+      <autoFilter ref="A1:L580" xr:uid="{C43D01A3-CA0E-9847-A724-5C29C1F67DA8}"/>
     </customSheetView>
     <customSheetView guid="{06F2B1CB-2C89-4E56-A693-1617D0161853}" filter="1" showAutoFilter="1" topLeftCell="A279">
       <selection activeCell="E584" sqref="E584"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:K579" xr:uid="{8194762E-9073-F54E-A08F-FDB57D567B88}">
+      <autoFilter ref="A1:K579" xr:uid="{E694520C-9155-164A-B139-8B7B78F48AFD}">
         <filterColumn colId="3">
           <filters>
             <filter val="01.12: גריטות והשמדות"/>
@@ -39548,32 +39548,32 @@
       <selection activeCell="J447" sqref="J447"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:K564" xr:uid="{E1FFE63C-96A8-D74D-AEE1-954871C12C34}"/>
+      <autoFilter ref="A1:K564" xr:uid="{3D200ECC-8A47-0C48-9347-667533361625}"/>
     </customSheetView>
     <customSheetView guid="{67AF5F5B-3F39-4AA5-A7E5-90EA827C9529}" showAutoFilter="1">
       <pane ySplit="26" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:K562" xr:uid="{5DE36C7D-4EBF-ED41-8AC3-5031219FD6D9}"/>
+      <autoFilter ref="A1:K562" xr:uid="{DF799A00-D542-E145-814C-646A5A694518}"/>
     </customSheetView>
     <customSheetView guid="{1B258CEB-FF63-4F96-8D42-492922FA82D5}" scale="80" showAutoFilter="1" topLeftCell="E232">
       <selection activeCell="H252" sqref="H252"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:L562" xr:uid="{11C25E41-7D75-3941-8896-8E0CF0B68102}"/>
+      <autoFilter ref="A1:L562" xr:uid="{7BCDB2D0-5058-7C48-A6A3-20072A90F50B}"/>
     </customSheetView>
     <customSheetView guid="{C4ABA962-79C3-4C78-8877-BCB1DE972866}" scale="80" showAutoFilter="1" topLeftCell="A7">
       <selection activeCell="C168" sqref="C168"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:L562" xr:uid="{32101558-95B7-C945-9963-85EF47367AE8}"/>
+      <autoFilter ref="A1:L562" xr:uid="{551B3775-D794-4249-B089-DF603D99F6C2}"/>
     </customSheetView>
     <customSheetView guid="{28A4A0B3-496E-4297-AAA5-DE7621E933AA}" scale="80" filter="1" showAutoFilter="1" topLeftCell="A488">
       <selection activeCell="F248" sqref="F248"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:K562" xr:uid="{7DBDDD39-1A89-C14C-9CD8-2E4ED959E01F}">
+      <autoFilter ref="A1:K562" xr:uid="{ACDE7646-4162-FC47-A4EF-3CDA89C222D0}">
         <filterColumn colId="3">
           <filters>
             <filter val="01.01: קבלה מרכש"/>
@@ -39589,7 +39589,7 @@
       <selection activeCell="G458" sqref="G458"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:K573" xr:uid="{4EACF9CD-2109-D648-8548-9EAE90E74419}">
+      <autoFilter ref="A1:K573" xr:uid="{5EC22C27-8C6A-AF4B-A271-2C67F7D15567}">
         <filterColumn colId="3">
           <filters>
             <filter val="01.02: ערכות"/>
@@ -39601,7 +39601,7 @@
       <selection activeCell="G216" sqref="G216"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:K575" xr:uid="{F636629F-3CBA-5F48-826B-0A423F1F650C}">
+      <autoFilter ref="A1:K575" xr:uid="{3E0EFF9B-DADA-2142-A89E-4DA4EA3AAD80}">
         <filterColumn colId="2">
           <filters>
             <filter val="01: מלאי ואחסנה"/>
@@ -39619,14 +39619,14 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="G1:G582" xr:uid="{7776571C-D34E-814E-BD5E-EE9A97A3C412}"/>
+      <autoFilter ref="G1:G582" xr:uid="{77BDB2A0-F483-2442-AFA4-C2B449693701}"/>
     </customSheetView>
     <customSheetView guid="{D17C6E84-0D60-4297-8DEE-DA3371D4A7FD}" scale="80" filter="1" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B593" sqref="B593"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A1:L581" xr:uid="{155D1E40-5D8E-D94A-AF75-27F198F60879}">
+      <autoFilter ref="A1:L581" xr:uid="{F9B3E34E-8CB6-0347-842F-06063CC1FD21}">
         <filterColumn colId="6">
           <filters>
             <filter val="?"/>
@@ -49418,73 +49418,73 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{4D3E66CC-1857-3241-BA98-1200B5A72A48}"/>
+      <autoFilter ref="A1:M219" xr:uid="{CC748089-F83F-0449-B92A-7142D4468579}"/>
     </customSheetView>
     <customSheetView guid="{802E3E91-A1CB-4BEB-84C3-4D3DB3DA819B}" showAutoFilter="1" state="hidden">
       <selection activeCell="G4" sqref="G4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{5B413163-CB35-3D41-975A-C6642C1DF822}"/>
+      <autoFilter ref="A1:M219" xr:uid="{680DFF9D-51F2-4047-92CA-01AB1B997E7C}"/>
     </customSheetView>
     <customSheetView guid="{06F2B1CB-2C89-4E56-A693-1617D0161853}" showAutoFilter="1" state="hidden">
       <selection activeCell="G4" sqref="G4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{D705ED62-190D-2A41-826E-778CD8C17643}"/>
+      <autoFilter ref="A1:M219" xr:uid="{5EE130C6-7698-564E-ABBE-DDCE1CC44E20}"/>
     </customSheetView>
     <customSheetView guid="{BB381DEC-9E36-4510-ACBC-5E113C6F2714}" showAutoFilter="1" state="hidden">
       <selection activeCell="G4" sqref="G4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{316E69CA-9DCC-324C-AA0D-596080FCA76D}"/>
+      <autoFilter ref="A1:M219" xr:uid="{F8490457-BE18-0B48-AF7B-4A5CCB85BFD8}"/>
     </customSheetView>
     <customSheetView guid="{67AF5F5B-3F39-4AA5-A7E5-90EA827C9529}" showAutoFilter="1" topLeftCell="A17">
       <selection activeCell="E19" sqref="E19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{05ADBA67-706A-6C43-80FF-20F9304C66A5}"/>
+      <autoFilter ref="A1:M219" xr:uid="{4A6F2D49-ED57-9240-99FB-9EB641FB3E8C}"/>
     </customSheetView>
     <customSheetView guid="{1B258CEB-FF63-4F96-8D42-492922FA82D5}" showAutoFilter="1" state="hidden">
       <selection activeCell="G4" sqref="G4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{41A4EA9E-4E4B-A044-AB76-1B8CA7B71B98}"/>
+      <autoFilter ref="A1:M219" xr:uid="{9583C81D-65B6-1742-B130-2BFF69213852}"/>
     </customSheetView>
     <customSheetView guid="{C4ABA962-79C3-4C78-8877-BCB1DE972866}" showAutoFilter="1" state="hidden">
       <selection activeCell="G4" sqref="G4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{12FD3647-FFF3-CC47-9E2D-AF929F5F8628}"/>
+      <autoFilter ref="A1:M219" xr:uid="{C85BC18C-8EF5-B44D-86D4-B8025BE02D45}"/>
     </customSheetView>
     <customSheetView guid="{28A4A0B3-496E-4297-AAA5-DE7621E933AA}" showAutoFilter="1" state="hidden">
       <selection activeCell="G4" sqref="G4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{932A0984-026B-674C-A3B3-6F25A4E64172}"/>
+      <autoFilter ref="A1:M219" xr:uid="{C1570062-290C-9A4E-8355-C5714205F1E5}"/>
     </customSheetView>
     <customSheetView guid="{26FAE3D5-7160-4972-9E39-E9E7E24E7D03}" showAutoFilter="1" state="hidden">
       <selection activeCell="G4" sqref="G4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{630D8CF1-318C-0E44-98A8-E84598703F10}"/>
+      <autoFilter ref="A1:M219" xr:uid="{FEB3943F-6B4E-6A47-B7FB-B8819B4D01E8}"/>
     </customSheetView>
     <customSheetView guid="{267AD7AA-16D1-490A-823D-A51AA91A8CBA}" showAutoFilter="1" state="hidden">
       <selection activeCell="G4" sqref="G4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{7A8F70ED-D6E4-C74D-9C3D-551A8552864C}"/>
+      <autoFilter ref="A1:M219" xr:uid="{45081EC1-013F-284D-8FC2-3CBDC0856DA9}"/>
     </customSheetView>
     <customSheetView guid="{AD9FA840-4D41-443B-822D-367C4AB3780C}" showAutoFilter="1">
       <selection activeCell="E138" sqref="E138"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{1C59F4B7-D005-6641-ADC5-45E58E984105}"/>
+      <autoFilter ref="A1:M219" xr:uid="{B6863590-5CA4-BD49-83BF-ED6D5B5D472D}"/>
     </customSheetView>
     <customSheetView guid="{D17C6E84-0D60-4297-8DEE-DA3371D4A7FD}" showAutoFilter="1">
       <selection activeCell="H203" sqref="H203"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait"/>
-      <autoFilter ref="A1:M219" xr:uid="{3F3AF312-5C6B-1346-8159-EC1CB5D6595E}"/>
+      <autoFilter ref="A1:M219" xr:uid="{9A8C74E2-2EFB-EF4A-8B97-A411593E2E59}"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
